--- a/Projects/1. Predicting Credit Card Spend & Identifying Key Drivers/relevant.xlsx
+++ b/Projects/1. Predicting Credit Card Spend & Identifying Key Drivers/relevant.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidation!$P$1:$P$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Correlation!$B$1:$B$111</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -152,9 +153,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,20 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ111"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -480,16 +480,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
         <v>0.35585143117743601</v>
       </c>
-      <c r="DA3" s="1"/>
-    </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -497,16 +496,15 @@
         <v>0.306784059124385</v>
       </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>0.26043000160199598</v>
       </c>
-      <c r="BL5" s="1"/>
-    </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -514,7 +512,7 @@
         <v>0.233369957653902</v>
       </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -522,7 +520,7 @@
         <v>9.8076776966285598E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -530,7 +528,7 @@
         <v>9.7512987766066206E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -538,7 +536,7 @@
         <v>8.7177226969864005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -546,7 +544,7 @@
         <v>8.6512223053574797E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -554,16 +552,15 @@
         <v>8.1837139182213997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
         <v>7.5055713991291101E-2</v>
       </c>
-      <c r="CB12" s="1"/>
-    </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -571,7 +568,7 @@
         <v>7.0677191555222604E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -579,7 +576,7 @@
         <v>6.9521777480156102E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -587,16 +584,15 @@
         <v>5.3348164031721997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16">
         <v>5.3159125361543297E-2</v>
       </c>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -604,16 +600,15 @@
         <v>4.7610691822201401E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18">
         <v>4.4615560827873303E-2</v>
       </c>
-      <c r="AX18" s="1"/>
-    </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -621,25 +616,23 @@
         <v>3.60631144798284E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20">
         <v>2.8456978964236102E-2</v>
       </c>
-      <c r="CM20" s="1"/>
-    </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21">
         <v>2.14628403386697E-2</v>
       </c>
-      <c r="BI21" s="1"/>
-    </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -647,17 +640,15 @@
         <v>1.6715414332595602E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
         <v>1.6103965327393398E-2</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="AQ23" s="1"/>
-    </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -665,7 +656,7 @@
         <v>1.4108502067277999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -673,7 +664,7 @@
         <v>7.2914586139017504E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -681,16 +672,15 @@
         <v>7.2701720408658898E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27">
         <v>5.3843247737123696E-3</v>
       </c>
-      <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -698,16 +688,15 @@
         <v>3.8238968557454899E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29">
         <v>3.5644840207715699E-3</v>
       </c>
-      <c r="DF29" s="1"/>
-    </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -715,16 +704,15 @@
         <v>2.6579914109498199E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31">
         <v>-3.7187475651903499E-3</v>
       </c>
-      <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -732,16 +720,15 @@
         <v>-4.7387845247593499E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33">
         <v>-6.4416566086297096E-3</v>
       </c>
-      <c r="BV33" s="1"/>
-    </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -749,96 +736,12 @@
         <v>-1.83809245586136E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="CX39" s="1"/>
-    </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="BW41" s="1"/>
-    </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="W43" s="1"/>
-      <c r="BC43" s="1"/>
-    </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="CV44" s="1"/>
-    </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="BE46" s="1"/>
-    </row>
-    <row r="50" spans="18:107" x14ac:dyDescent="0.3">
-      <c r="R50" s="1"/>
-    </row>
-    <row r="55" spans="18:107" x14ac:dyDescent="0.3">
-      <c r="AQ55" s="1"/>
-    </row>
-    <row r="57" spans="18:107" x14ac:dyDescent="0.3">
-      <c r="AT57" s="1"/>
-      <c r="DC57" s="1"/>
-    </row>
-    <row r="59" spans="18:107" x14ac:dyDescent="0.3">
-      <c r="BZ59" s="1"/>
-    </row>
-    <row r="61" spans="18:107" x14ac:dyDescent="0.3">
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="18:107" x14ac:dyDescent="0.3">
-      <c r="CH62" s="1"/>
-    </row>
-    <row r="63" spans="18:107" x14ac:dyDescent="0.3">
-      <c r="CW63" s="1"/>
-    </row>
-    <row r="66" spans="12:110" x14ac:dyDescent="0.3">
-      <c r="CZ66" s="1"/>
-    </row>
-    <row r="74" spans="12:110" x14ac:dyDescent="0.3">
-      <c r="AG74" s="1"/>
-    </row>
-    <row r="75" spans="12:110" x14ac:dyDescent="0.3">
-      <c r="AO75" s="1"/>
-    </row>
-    <row r="78" spans="12:110" x14ac:dyDescent="0.3">
-      <c r="BG78" s="1"/>
-      <c r="DF78" s="1"/>
-    </row>
-    <row r="80" spans="12:110" x14ac:dyDescent="0.3">
-      <c r="L80" s="1"/>
-    </row>
-    <row r="86" spans="20:62" x14ac:dyDescent="0.3">
-      <c r="BJ86" s="1"/>
-    </row>
-    <row r="91" spans="20:62" x14ac:dyDescent="0.3">
-      <c r="T91" s="1"/>
-    </row>
-    <row r="100" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="AR100" s="1"/>
-    </row>
-    <row r="101" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="BK101" s="1"/>
-    </row>
-    <row r="102" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="AM102" s="1"/>
-    </row>
-    <row r="104" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="BN104" s="1"/>
-    </row>
-    <row r="105" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="BE105" s="1"/>
-      <c r="DJ105" s="1"/>
-    </row>
-    <row r="106" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="D106" s="1"/>
-    </row>
-    <row r="108" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="BE108" s="1"/>
-    </row>
-    <row r="111" spans="4:114" x14ac:dyDescent="0.3">
-      <c r="AC111" s="1"/>
-      <c r="BZ111" s="1"/>
-    </row>
   </sheetData>
+  <autoFilter ref="B1:B111">
+    <sortState ref="A2:B111">
+      <sortCondition descending="1" ref="B1:B111"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -848,7 +751,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:XFD1048576"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Projects/1. Predicting Credit Card Spend & Identifying Key Drivers/relevant.xlsx
+++ b/Projects/1. Predicting Credit Card Spend & Identifying Key Drivers/relevant.xlsx
@@ -15,6 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Correlation!$B$1:$B$111</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -462,7 +463,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Projects/1. Predicting Credit Card Spend & Identifying Key Drivers/relevant.xlsx
+++ b/Projects/1. Predicting Credit Card Spend & Identifying Key Drivers/relevant.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation" sheetId="1" r:id="rId1"/>
-    <sheet name="Consolidation" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Consolidation" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidation!$P$1:$P$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidation!$P$1:$P$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Correlation!$B$1:$B$111</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>TotalSpend</t>
   </si>
@@ -119,6 +120,153 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>retire</t>
+  </si>
+  <si>
+    <t>carcatvalue</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>owndvd</t>
+  </si>
+  <si>
+    <t>ownvcr</t>
+  </si>
+  <si>
+    <t>owncd</t>
+  </si>
+  <si>
+    <t>carown</t>
+  </si>
+  <si>
+    <t>card2</t>
+  </si>
+  <si>
+    <t>owntv</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>wireless</t>
+  </si>
+  <si>
+    <t>ownpda</t>
+  </si>
+  <si>
+    <t>homeown</t>
+  </si>
+  <si>
+    <t>ownfax</t>
+  </si>
+  <si>
+    <t>response_03</t>
+  </si>
+  <si>
+    <t>pager</t>
+  </si>
+  <si>
+    <t>callwait</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>callid</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>tollfree</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>multline</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>ownpc</t>
+  </si>
+  <si>
+    <t>owngame</t>
+  </si>
+  <si>
+    <t>ownipod</t>
+  </si>
+  <si>
+    <t>jobcat</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>hometype</t>
+  </si>
+  <si>
+    <t>jobsat</t>
+  </si>
+  <si>
+    <t>polcontrib</t>
+  </si>
+  <si>
+    <t>bfast</t>
+  </si>
+  <si>
+    <t>ebill</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Final tuning parameters</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>R-square (only for train)</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>RMSPE</t>
+  </si>
+  <si>
+    <t>Corr(actual, pred)</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -142,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -150,12 +298,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,6 +1015,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -760,4 +1226,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>